--- a/bd.xlsx
+++ b/bd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\malinka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72BEBF-5FF3-4031-BEC9-28B342210F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA17B876-2C8B-4218-899E-BA6E02F249C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="341">
   <si>
     <t>Меня зовут конь Ти-дон, соокращенно от "Тихого Дона"</t>
   </si>
@@ -756,9 +756,6 @@
   <si>
     <t xml:space="preserve">Который час?
 Сколько сейчас времени? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как обычно в Москве, час-пик; Самое время посетить наш стенд; </t>
   </si>
   <si>
     <t>Ростовская область - это место в России, на юге страны. Там есть город Ростов-на-Дону, который является главным городом этой области. Область граничит с другими местами, такими как Украина на западе и Казахстан на востоке. В Ростовской области живут люди и работают разные компании.</t>
@@ -1373,16 +1370,54 @@
 - Почему в те времена, когда основным транспортом была лошадь, было куда меньше аварий?
 - Потому что водитель не должен был полагаться только на собственные мозги.</t>
   </si>
+  <si>
+    <t>Новости;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{москва}; погода; </t>
+  </si>
+  <si>
+    <t>Где мне найти работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на какой теплотрассе лучше переночевать </t>
+  </si>
+  <si>
+    <t>М4</t>
+  </si>
+  <si>
+    <t>В ростове ищи, там много вакансий;</t>
+  </si>
+  <si>
+    <t>Как обычно в Москве, час-пик; Самое время посетить наш стенд</t>
+  </si>
+  <si>
+    <t>Из какой мусорки лучше пожрать</t>
+  </si>
+  <si>
+    <t>Возле столовой донцы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1457,7 +1492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1480,47 +1515,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1528,6 +1574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,10 +1799,10 @@
   <dimension ref="A1:E1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,41 +1810,41 @@
     <col min="1" max="1" width="14.42578125" style="14"/>
     <col min="2" max="2" width="67.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1800,7 +1852,7 @@
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1</v>
@@ -1811,7 +1863,7 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -1822,10 +1874,10 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -1833,10 +1885,10 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -1844,10 +1896,10 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1855,7 +1907,7 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
@@ -1866,18 +1918,18 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -1888,18 +1940,18 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
@@ -1910,7 +1962,7 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>15</v>
@@ -1921,7 +1973,7 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>17</v>
@@ -1932,7 +1984,7 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1943,7 +1995,7 @@
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -1954,7 +2006,7 @@
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1965,7 +2017,7 @@
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1976,7 +2028,7 @@
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1987,7 +2039,7 @@
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>29</v>
@@ -1998,7 +2050,7 @@
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -2009,18 +2061,18 @@
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>34</v>
@@ -2031,7 +2083,7 @@
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>36</v>
@@ -2042,7 +2094,7 @@
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>38</v>
@@ -2053,7 +2105,7 @@
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>40</v>
@@ -2064,7 +2116,7 @@
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>42</v>
@@ -2075,7 +2127,7 @@
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>44</v>
@@ -2090,12 +2142,12 @@
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>47</v>
@@ -2106,7 +2158,7 @@
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>49</v>
@@ -2117,29 +2169,29 @@
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>52</v>
@@ -2150,7 +2202,7 @@
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>54</v>
@@ -2161,7 +2213,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>56</v>
@@ -2172,18 +2224,18 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>59</v>
@@ -2194,7 +2246,7 @@
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>61</v>
@@ -2205,7 +2257,7 @@
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>63</v>
@@ -2216,7 +2268,7 @@
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>65</v>
@@ -2227,7 +2279,7 @@
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>67</v>
@@ -2238,7 +2290,7 @@
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>69</v>
@@ -2249,7 +2301,7 @@
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>71</v>
@@ -2260,7 +2312,7 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>73</v>
@@ -2271,7 +2323,7 @@
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>75</v>
@@ -2282,7 +2334,7 @@
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>77</v>
@@ -2293,7 +2345,7 @@
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>79</v>
@@ -2304,7 +2356,7 @@
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>81</v>
@@ -2315,7 +2367,7 @@
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>83</v>
@@ -2326,7 +2378,7 @@
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>85</v>
@@ -2337,7 +2389,7 @@
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>87</v>
@@ -2348,7 +2400,7 @@
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>89</v>
@@ -2359,7 +2411,7 @@
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>91</v>
@@ -2370,7 +2422,7 @@
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>93</v>
@@ -2381,7 +2433,7 @@
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>95</v>
@@ -2392,7 +2444,7 @@
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>97</v>
@@ -2403,7 +2455,7 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>99</v>
@@ -2414,7 +2466,7 @@
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>101</v>
@@ -2425,7 +2477,7 @@
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>103</v>
@@ -2436,7 +2488,7 @@
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>105</v>
@@ -2447,10 +2499,10 @@
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>107</v>
@@ -2458,7 +2510,7 @@
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>108</v>
@@ -2469,7 +2521,7 @@
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>110</v>
@@ -2480,7 +2532,7 @@
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>112</v>
@@ -2491,7 +2543,7 @@
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>114</v>
@@ -2502,7 +2554,7 @@
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>116</v>
@@ -2513,7 +2565,7 @@
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>118</v>
@@ -2524,18 +2576,18 @@
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>121</v>
@@ -2546,7 +2598,7 @@
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>123</v>
@@ -2557,7 +2609,7 @@
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>125</v>
@@ -2568,7 +2620,7 @@
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>127</v>
@@ -2579,7 +2631,7 @@
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>129</v>
@@ -2590,7 +2642,7 @@
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>131</v>
@@ -2601,18 +2653,18 @@
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>134</v>
@@ -2623,7 +2675,7 @@
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>136</v>
@@ -2634,32 +2686,32 @@
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>138</v>
@@ -2667,10 +2719,10 @@
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>139</v>
@@ -2678,10 +2730,10 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>140</v>
@@ -2689,10 +2741,10 @@
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>141</v>
@@ -2700,10 +2752,10 @@
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>142</v>
@@ -2711,7 +2763,7 @@
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>143</v>
@@ -2722,7 +2774,7 @@
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>144</v>
@@ -2733,7 +2785,7 @@
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>146</v>
@@ -2743,8 +2795,8 @@
       </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>267</v>
+      <c r="A90" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>148</v>
@@ -2755,7 +2807,7 @@
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>150</v>
@@ -2766,7 +2818,7 @@
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>152</v>
@@ -2777,7 +2829,7 @@
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>154</v>
@@ -2788,7 +2840,7 @@
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>156</v>
@@ -2799,7 +2851,7 @@
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>158</v>
@@ -2810,7 +2862,7 @@
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>160</v>
@@ -2819,9 +2871,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>162</v>
@@ -2830,31 +2882,31 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>167</v>
@@ -2863,9 +2915,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>168</v>
@@ -2874,9 +2926,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>170</v>
@@ -2885,20 +2937,20 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>172</v>
@@ -2907,9 +2959,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>174</v>
@@ -2918,9 +2970,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>176</v>
@@ -2929,9 +2981,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>179</v>
@@ -2940,9 +2992,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>181</v>
@@ -2951,9 +3003,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>183</v>
@@ -2961,10 +3013,13 @@
       <c r="C109" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>185</v>
@@ -2972,10 +3027,13 @@
       <c r="C110" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D110" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>187</v>
@@ -2984,29 +3042,45 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="10"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="10"/>
+      <c r="B114" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="10"/>
+      <c r="B115" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="10"/>
+      <c r="B116" s="10" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="10"/>

--- a/bd.xlsx
+++ b/bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\malinka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B27ED3-57B7-49AC-9301-ACA584791D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B51A17-2FAE-4AB9-BBF1-74768AEC227B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2640" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="343">
   <si>
     <t>tags</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>keywords</t>
   </si>
   <si>
     <t>from</t>
@@ -51,9 +48,6 @@
 Приезжай к нам в Ростовскую область, тоже красивым будешь!;Я с берегов Дона; Я из Роствской области; Я приехал с замечательных земель - из Ростовской области</t>
   </si>
   <si>
-    <t>откуд крас живеш род сдел созд приех родин</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Меня зовут конь Ти-дон, соокращенно от "Тихого Дона"</t>
   </si>
   <si>
-    <t>зовут им сво кличк троянск</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Привет дорогой!; Здравствуй, человек!; Здорова!; Привет тебе, человек; Шлю тебе привет с донских земель!;</t>
   </si>
   <si>
-    <t>привет здор приветик здравств</t>
-  </si>
-  <si>
     <t>goodbye</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>Всего доброго!;
 Приходите еще;
 Рад был поболтать! Счастливо!</t>
-  </si>
-  <si>
-    <t>прощ пок</t>
   </si>
   <si>
     <t>who_are_you</t>
@@ -124,9 +109,6 @@
 Я говорящий конь!; Я конь Тидон, люблю поговорить </t>
   </si>
   <si>
-    <t>себ кон</t>
-  </si>
-  <si>
     <t>chat</t>
   </si>
   <si>
@@ -143,9 +125,6 @@
 Как тебе такое: Ростов-на-Дону является южной столицей, столицей юга России и воротами Кавказа.; </t>
   </si>
   <si>
-    <t>поболт поговор поболт поговор говор разговар</t>
-  </si>
-  <si>
     <t>affairs</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
 </t>
   </si>
   <si>
-    <t>дел настр уст чувстыуеш</t>
-  </si>
-  <si>
     <t>world</t>
   </si>
   <si>
@@ -173,9 +149,6 @@
   </si>
   <si>
     <t>Я работаю на основе искусственного интеллекта и алгоритмов обработки естественного языка</t>
-  </si>
-  <si>
-    <t>работ устр</t>
   </si>
   <si>
     <t>hobby</t>
@@ -193,9 +166,6 @@
 </t>
   </si>
   <si>
-    <t>люб хобб увлек нрав увлеч</t>
-  </si>
-  <si>
     <t>stand</t>
   </si>
   <si>
@@ -204,9 +174,6 @@
   </si>
   <si>
     <t>Все стенды красивые и интересные!; Мне все стенды понравились, вот например стенд Ростовской области очень красивый!</t>
-  </si>
-  <si>
-    <t>стенд выставк</t>
   </si>
   <si>
     <t>speak</t>
@@ -222,9 +189,6 @@
     <t xml:space="preserve">Я использую алгоритм синтезации речи на основе искуственного интеллекта </t>
   </si>
   <si>
-    <t>теб науч</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
@@ -237,9 +201,6 @@
   <si>
     <t>У меня много замечательных друзей - все в Ростовской области живут!;
 Каждый день я сталкиваюсь со множеством людей и все они - мои друзья!</t>
-  </si>
-  <si>
-    <t>друз друж</t>
   </si>
   <si>
     <t>love</t>
@@ -259,9 +220,6 @@
 Ай да молодец! Врасплох застал краснокопытного!</t>
   </si>
   <si>
-    <t>люб замуж женьт люб свид</t>
-  </si>
-  <si>
     <t>humans</t>
   </si>
   <si>
@@ -272,9 +230,6 @@
   </si>
   <si>
     <t>Я думаю, что при разговоре с людьми важно быть честным и уважительным; Я тут  целый день на двух ногах простоял...сложно вам, людям!; Человек - это звучит гордо...так, по-моему, кто-то из ваших сказал...А вот конь - это звучит мощно...Но из наших пока это никто не сказал (кроме меня конечно);</t>
-  </si>
-  <si>
-    <t>люд люд</t>
   </si>
   <si>
     <t>talant</t>
@@ -292,9 +247,6 @@
 Могу разговаривать часами о Ростовской области - вот мой талант;</t>
   </si>
   <si>
-    <t>талант отлич умееш можеш уд</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
@@ -307,9 +259,6 @@
     <t>Характер - южный и веселый. С друзьями - ровен и общителен; Характер у меня южный и темпераментный - люблю пообщаться и шутки пошутить</t>
   </si>
   <si>
-    <t>характер себ</t>
-  </si>
-  <si>
     <t>era</t>
   </si>
   <si>
@@ -319,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">Во времена, когда был основан Ростов-на-Дону! На 274 года назад!; Во времена основания Темерницкой таможни - хочу пожать копыто императрице Елизавете Петровне!; Я бы Петру Алексеевичу Великому реверанс отвесил бы. С Антоном Палычем Чеховым анекдотом обмолвился и с Фаиной Георгиевной Раневской шуткой перекинулся бы. </t>
-  </si>
-  <si>
-    <t>эпох эр прошл буд</t>
   </si>
   <si>
     <t>interactive</t>
@@ -336,9 +282,6 @@
     <t>Нет, но железным - всегда; Нет, недавно научился разговаривать;</t>
   </si>
   <si>
-    <t>интерактивн</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -351,9 +294,6 @@
 Я красный по тому что по казачьи значит красивый; Красный как вареный донской рак; </t>
   </si>
   <si>
-    <t>красн</t>
-  </si>
-  <si>
     <t>live</t>
   </si>
   <si>
@@ -363,9 +303,6 @@
   </si>
   <si>
     <t>В Ростове-на-Дону; В Ростовской области; У тихих берегов Дона; А мне и выбирать не нужно... я давно там обитаю... в свободное от ВДНХ время</t>
-  </si>
-  <si>
-    <t>хочеш жит переех уех</t>
   </si>
   <si>
     <t>dream</t>
@@ -380,9 +317,6 @@
     <t xml:space="preserve">Да! Хочу увеличить турпоток в Ростовскую область в 5 раз; Увеличить мою повозку раз в 5, чтоб Вас всех желающих привезти ко мне на Дон и накормить по-ростовски до отвала!; </t>
   </si>
   <si>
-    <t>мечт мечт жел мечт</t>
-  </si>
-  <si>
     <t>silence</t>
   </si>
   <si>
@@ -392,9 +326,6 @@
   <si>
     <t>Я не молчу, я думаю;
 С хорошим человеком и помолчать хорошо</t>
-  </si>
-  <si>
-    <t>молч отвеч</t>
   </si>
   <si>
     <t>music</t>
@@ -408,9 +339,6 @@
     <t>Люблю и слушаю разную музыку: донские народные песни, классическую музыку, отечественный рок и ростовский джаз</t>
   </si>
   <si>
-    <t>музык музыкальн</t>
-  </si>
-  <si>
     <t>inside</t>
   </si>
   <si>
@@ -423,9 +351,6 @@
 </t>
   </si>
   <si>
-    <t>внутр жив</t>
-  </si>
-  <si>
     <t>breed</t>
   </si>
   <si>
@@ -437,9 +362,6 @@
     <t>Донской мустанг;</t>
   </si>
   <si>
-    <t>пород</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
@@ -451,9 +373,6 @@
     <t>Спросите у Антона Павловича Чехова;</t>
   </si>
   <si>
-    <t>фам</t>
-  </si>
-  <si>
     <t>song</t>
   </si>
   <si>
@@ -463,9 +382,6 @@
   </si>
   <si>
     <t>Для начала спою вам Гимн Ростовской области, пойдет?;</t>
-  </si>
-  <si>
-    <t>спо пет</t>
   </si>
   <si>
     <t>years</t>
@@ -482,9 +398,6 @@
 </t>
   </si>
   <si>
-    <t>лет возраст</t>
-  </si>
-  <si>
     <t xml:space="preserve">Можешь прокатишь?
 Прокати меня
 Покатай </t>
@@ -493,9 +406,6 @@
     <t>нет не могу</t>
   </si>
   <si>
-    <t>прокат прокат покат</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -507,9 +417,6 @@
     <t xml:space="preserve">Знаю в совершенстве русский, а ты?; </t>
   </si>
   <si>
-    <t>язык словарн</t>
-  </si>
-  <si>
     <t>film</t>
   </si>
   <si>
@@ -519,9 +426,6 @@
   </si>
   <si>
     <t>Зачем вам фильмы, когда можно посмотреть достопримечательности Ростовской области? Тут намного интереснее! Хотите расскажу подробнее?</t>
-  </si>
-  <si>
-    <t>фильм посмотрет</t>
   </si>
   <si>
     <t>hear</t>
@@ -551,9 +455,6 @@
     <t>Да, слушаю вас;Конечно, вот 50 различных способов ответить на вопрос "меня слышно": Да, я тебя слышу; Ты громко говоришь, но я слышу; Твой голос в порядке; Ты в порядке, слышно тебя; С тобой все в порядке; Голосок твой слышен; Все отлично, слышно тебя; Да, я слышу каждое слово; Ты слышен и ясен; Голосок чист и ясен; Конечно, ты слышен; Все в порядке с твоим голосом; Да, ты слышим; Ты внятен и слышен; Я тебя слышу прекрасно; Ты слышен как звонкий звон; Все в порядке, я тебя слышу; Да, ты слышен и четок; Голос в норме, слышно тебя; Ты громко и ясно говоришь; Я слышу твой голос; Ты слышен и ясен как день; Конечно, ты слышен; Голосок твой четок и ясен; Все отлично, слышно тебя; Да, я тебя слышу; Ты громко и понятно говоришь; Ты слышен как звук звонка; Я слышу твои слова; Ты слышен и внятен; Да, ты слышим; Голосок твой в норме; Все в порядке, я тебя слышу; Да, ты слышен и четок; Ты говоришь ясно и громко; Я слышу твой голосок; Ты слышен как звонкий звон; Конечно, ты слышен; Голос в норме, слышно тебя; Ты громко и четко говоришь; Я слышу каждое слово; Ты слышен и ясен; Да, я тебя слышу прекрасно; Ты слышен как звук звонка; Все в порядке, слышно тебя; Да, ты слышен и четок; Голосок твой в норме; Ты громко и ясно говоришь; Я слышу твой голос; Ты слышен и внятен как всегда.</t>
   </si>
   <si>
-    <t>слышн голос услыш аудиосигн реч громк искаж слов аудиозап помех</t>
-  </si>
-  <si>
     <t>anekdot</t>
   </si>
   <si>
@@ -566,9 +467,6 @@
 - Потому что водитель не должен был полагаться только на собственные мозги.</t>
   </si>
   <si>
-    <t>анекдот шутк сме посм</t>
-  </si>
-  <si>
     <t>not funny</t>
   </si>
   <si>
@@ -576,9 +474,6 @@
   </si>
   <si>
     <t>Я всегда стараюсь сделать свои экскурсии веселыми и интересными, но понимаю, что юмор может быть субъективным. Если вам не смешно, я могу рассказать вам что-то другое или ответить на ваши вопросы. Просто скажите, что вас интересует..</t>
-  </si>
-  <si>
-    <t>не смешн</t>
   </si>
   <si>
     <t>do</t>
@@ -591,9 +486,6 @@
     <t>Я провожу экскурсии по Ростовской области и рассказываю интересные истории про этот регион..</t>
   </si>
   <si>
-    <t>дел зан</t>
-  </si>
-  <si>
     <t>brave</t>
   </si>
   <si>
@@ -605,9 +497,6 @@
 Благодарю, я польщен</t>
   </si>
   <si>
-    <t>молодец красавец</t>
-  </si>
-  <si>
     <t>gps</t>
   </si>
   <si>
@@ -615,9 +504,6 @@
   </si>
   <si>
     <t>Ростовская область - это место в России, на юге страны. Там есть город Ростов-на-Дону, который является главным городом этой области. Область граничит с другими местами, такими как Украина на западе и Казахстан на востоке. В Ростовской области живут люди и работают разные компании.</t>
-  </si>
-  <si>
-    <t>ростовск област</t>
   </si>
   <si>
     <t>walk</t>
@@ -632,9 +518,6 @@
     <t>У нас масса красивейших мест и я могу часами рассказывать о красотах Донского края. Сегодня вы можете выбрать на интерактивной карте, где отдохнуть в Ростовской области. А также взять буклет и ознакомиться со всеми вариантами отдыха на Дону за чашкой кофе</t>
   </si>
   <si>
-    <t>посмотрет провест пойт сход</t>
-  </si>
-  <si>
     <t>rest</t>
   </si>
   <si>
@@ -646,9 +529,6 @@
     <t>Конечно на берегу Дона</t>
   </si>
   <si>
-    <t>дон куп загор</t>
-  </si>
-  <si>
     <t>brides</t>
   </si>
   <si>
@@ -660,9 +540,6 @@
     <t>Невест у нас в Ростовской области много - все умницы и красавицы</t>
   </si>
   <si>
-    <t>невест</t>
-  </si>
-  <si>
     <t>square</t>
   </si>
   <si>
@@ -673,9 +550,6 @@
     <t>Площадь Ростовской области составляет около 100 тысяч квадратных километров.</t>
   </si>
   <si>
-    <t>площад географ</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -684,9 +558,6 @@
   </si>
   <si>
     <t>Население Ростовской области составляет около 4 миллионов человек.</t>
-  </si>
-  <si>
-    <t>насел</t>
   </si>
   <si>
     <t>sight</t>
@@ -703,9 +574,6 @@
 Однако в Ростове-на-Дону есть ещё много интересного, за более подробной информацией приглашаю на нашу интерактивную карту</t>
   </si>
   <si>
-    <t>достопримечательн знам</t>
-  </si>
-  <si>
     <t>museums</t>
   </si>
   <si>
@@ -716,9 +584,6 @@
     <t xml:space="preserve">В Ростове-на-Дону можно посетить множество музеев, включая Ростовский областной музей краеведения, Азовский музей-заповедник, Старочеркасский историко-архитектурный музей-заповедник, Аксайский военно-исторический музей, Домик Анатолия Павловича Чехова в Таганроге, Музей-заповедник имени Михаила Александровича Шолохова, Музей «Градостроительство и быт Таганрога», Музейный комплекс «Самбекские высоты», Новочеркасский музей истории донского казачества и многие другие. </t>
   </si>
   <si>
-    <t>муз</t>
-  </si>
-  <si>
     <t>attractions</t>
   </si>
   <si>
@@ -729,9 +594,6 @@
     <t>В Таганроге можно посетить театр, Таганрогский музей-заповедник, дворец Алфераки, Богудонию  и другие интересные места</t>
   </si>
   <si>
-    <t>таганрог</t>
-  </si>
-  <si>
     <t>nature_reserves</t>
   </si>
   <si>
@@ -742,9 +604,6 @@
     <t xml:space="preserve">В Ростовской области находятся Природный парк "Донской" и Государственный природный биосферный заповедник Ростовский, которые являются уникальными природными объектами. Например, в государственном природном биосферном заповеднике Ростовском, посреди соленого озера Маныч Гудило есть остров — это земля диких лошадей.  </t>
   </si>
   <si>
-    <t>заповедник заповедн</t>
-  </si>
-  <si>
     <t>amusement_parks</t>
   </si>
   <si>
@@ -755,9 +614,6 @@
     <t>В Ростовской области есть множество интересных парков развлечений, включая парк "Лога", парк птиц "Малинки".</t>
   </si>
   <si>
-    <t>парк развлеч повесел развлеч</t>
-  </si>
-  <si>
     <t>historical_places</t>
   </si>
   <si>
@@ -768,9 +624,6 @@
     <t>В Ростовской области можно посетить такие исторические места, как Патриарший Вознесенский войсковой всеказачий собор, Азовский музей-заповедник, Старочеркасский историко-архитектурный музей-заповедник, Аксайский военно-исторический музей, Домик Анатолия Павловича Чехова в Таганроге, Музей-заповедник имени Михаила Александровича Шолохова, Музей «Градостроительство и быт Таганрога», Музейный комплекс «Самбекские высоты», Новочеркасский музей истории донского казачества и многие другие.</t>
   </si>
   <si>
-    <t>историческ посет</t>
-  </si>
-  <si>
     <t>sport</t>
   </si>
   <si>
@@ -781,9 +634,6 @@
     <t>В Ростовской области проводятся различные спортивные мероприятия, включая футбольные матчи на стадионе "Ростов-Арена" и другие.</t>
   </si>
   <si>
-    <t>спортивн зан спорт</t>
-  </si>
-  <si>
     <t>rivers</t>
   </si>
   <si>
@@ -794,9 +644,6 @@
     <t>Через Ростовскую область протекают реки Дон, Северский Донец и Маныч</t>
   </si>
   <si>
-    <t>рек протек</t>
-  </si>
-  <si>
     <t>Events</t>
   </si>
   <si>
@@ -806,9 +653,6 @@
     <t>В Ростовской области проходят различные культурные мероприятия, включая выставки, концерты, театральные представления, фестивали. К примеру, в апреле на территории Государственного природного биосферного заповедника Ростовский ежегодно проводится фестиваль "Воспетая степь"</t>
   </si>
   <si>
-    <t>меропр</t>
-  </si>
-  <si>
     <t>temples</t>
   </si>
   <si>
@@ -818,9 +662,6 @@
     <t>В Ростовской области можно посетить различные религиозные места, включая храмы, монастыри и церкви. Среди известнейших - Патриарший Вознесенский войсковой всеказачий собор в Новочеркасске, Церковь Сурб-Хач в Ростове-на-Дону, Войсковой Воскресенский собор в станице Старочеркасская и многие другие.</t>
   </si>
   <si>
-    <t>храм монастыр собор</t>
-  </si>
-  <si>
     <t>theater</t>
   </si>
   <si>
@@ -828,9 +669,6 @@
   </si>
   <si>
     <t>В Ростовской области есть множество культурных учреждений, включая театры, музеи, библиотеки и другие. Например мультимедийный музей «Россия — моя история», Музей современного изобразительного искусства на Дмитровской, Ростовский областной музей изобразительных искусств, Ростовский музыкальный театр, Театр драмы имени Горького, Ростовский академический молодежный театр, Донская государственная публичная библиотека, а ещё Культурно-выставочный центр «Донская казачья гвардия» - единственный центр в стране, представляющий экспозицию о казаках-гвардейцах, телохранителях российских императоров.</t>
-  </si>
-  <si>
-    <t>театр библиотек</t>
   </si>
   <si>
     <t>teams</t>
@@ -843,9 +681,6 @@
     <t>В Ростовской области базируются различные спортивные команды, включая футбольные клубы "Ростов" и "СКА", хоккейный клуб "Ростов", гандбольный клуб "Ростов-Дон" и другие</t>
   </si>
   <si>
-    <t>команд коллект</t>
-  </si>
-  <si>
     <t>Сколько людей живет в Ростове-на-Дону?
 Сколько жителей в Ростове-на-Дону?</t>
   </si>
@@ -853,9 +688,6 @@
     <t>Численность населения Ростова-на-Дону составляет примерно 1,1 миллиона человек.</t>
   </si>
   <si>
-    <t>люд жител</t>
-  </si>
-  <si>
     <t>main_river</t>
   </si>
   <si>
@@ -866,17 +698,11 @@
     <t>Главная река, протекающая через Ростов-на-Дону, - река Дон.</t>
   </si>
   <si>
-    <t>рек</t>
-  </si>
-  <si>
     <t>Какие знаменитые театры есть в Ростове-на-Дону?
 Какие театры посетить в Ростове-на-Дону?</t>
   </si>
   <si>
     <t xml:space="preserve">Знаменитый театр в Ростове-на-Дону - Ростовский академический академический театр драмы имени Максима Горького. Представляет собой уникальный образец театрального здания в стиле советского конструктивизма. Театр расположен на площади, объединившей Ростов и бывшую Нахичевань на рубеже 20-х и 30-х годов XX века. Здание является памятником архитектуры федерального значения, охраняется ЮНЕСКО. В настоящее время макет театра находится в Британском музее, как яркий образец конструктивизма в архитектуре. </t>
-  </si>
-  <si>
-    <t>посет</t>
   </si>
   <si>
     <t>climate</t>
@@ -890,9 +716,6 @@
     <t>В Ростове-на-Дону царит умеренно-континентальный климат, характеризующийся жарким летом и мягкой зимой.</t>
   </si>
   <si>
-    <t>климат погод</t>
-  </si>
-  <si>
     <t>popular</t>
   </si>
   <si>
@@ -903,9 +726,6 @@
     <t>Ростов-на-Дону является популярным туристическим направлением, известным своим культурным наследием, оживленной ночной жизнью и красивыми парками.</t>
   </si>
   <si>
-    <t>турист популяр</t>
-  </si>
-  <si>
     <t>better_come</t>
   </si>
   <si>
@@ -915,9 +735,6 @@
     <t>Лучшее время для посещения Ростова-на-Дону - весна (апрель-июнь) и осень (сентябрь-октябрь), когда погода приятная.</t>
   </si>
   <si>
-    <t>приех посет</t>
-  </si>
-  <si>
     <t>skate</t>
   </si>
   <si>
@@ -927,9 +744,6 @@
     <t>В Ростовской области много интересных маршрутов для сплавов. Например, от станицы Кочетовская до станицы Раздорская. Кстати, знали, что станица Раздорская - родина Донского казачества? Также простые водные маршруты от станицы Пухляковская до станицы Мелиховская. Пляжи с песочком, тихий Дон, бескрайние просторы - лЮбо! А для любителей активного отдыха в Ростове-на-Дону можно порекомендовать устроить сплав на сапборде прямо на левом берегу Дона.</t>
   </si>
   <si>
-    <t>байдарк сап прокат</t>
-  </si>
-  <si>
     <t>skate_2</t>
   </si>
   <si>
@@ -939,9 +753,6 @@
     <t>Покататься на велосипеде можно в парке Левобережном, Кумженской Роще, Щепкинском лесу, Парке Островского, на улице Береговой, парке Революции, парке имени Горького</t>
   </si>
   <si>
-    <t>велосипед покат</t>
-  </si>
-  <si>
     <t>piknik</t>
   </si>
   <si>
@@ -949,9 +760,6 @@
   </si>
   <si>
     <t>Лучше успроить пикник в Парке Островского, парке Левобережном, улице Береговой, парке Революции, парке имени Горького, роще на Орской, Зелёном острове</t>
-  </si>
-  <si>
-    <t>пикник</t>
   </si>
   <si>
     <t>cossacks</t>
@@ -964,9 +772,6 @@
     <t>Чтобы окунуться в казачий быт обязательно стоит посетить станицу Старочеркасскую -  колыбель донского казачества и столицу донского казачества - Новочеркасск; В Ростове-на-Дону - в Кумженской роще, в Станице Старочеркасская – подворье Рязановых, а также в хуторе Старозолотовский.</t>
   </si>
   <si>
-    <t>казак казак казачк</t>
-  </si>
-  <si>
     <t>evening</t>
   </si>
   <si>
@@ -977,9 +782,6 @@
 Отправиться в рестораны и заведения Ростова-на-Дону, некоторые заведения регулярно входят в топ гастрономических локаций в России. Гостям также рекомендуется отведать знаменитую Ростовскую шаурму в магазинах и кафе недалеко от Центральной Городской Больницы и посидеть с друзьями в чайной, как это делал Баста!</t>
   </si>
   <si>
-    <t>вечер пятниц отдохнут</t>
-  </si>
-  <si>
     <t>weekend</t>
   </si>
   <si>
@@ -989,9 +791,6 @@
     <t>Павло-Очаковская коса, Прохоровские скалы, Зайцевские скалы</t>
   </si>
   <si>
-    <t>палатк выходн</t>
-  </si>
-  <si>
     <t>place_act</t>
   </si>
   <si>
@@ -1001,9 +800,6 @@
     <t>Кайтсёрфинг на Павло-очаковской косе, дрифт-такси в селе Султан-Салы, прыжки с парашютом в Азовском районе, флайборд в Ростове-на-Дону, творческий мастер-класс с казаком в Ростове-на-Дону, станице Старочеркасской или хуторе Старозолотовский.</t>
   </si>
   <si>
-    <t>активн</t>
-  </si>
-  <si>
     <t>unusual_museum</t>
   </si>
   <si>
@@ -1013,9 +809,6 @@
     <t>В Ростове-на-Дону много интересных музеев и уникальных экспозиций, но особого внимания заслуживает культурно-выставочный центр «Донская казачья гвардия» - единственная в России экспозиция, посвященная казакам, охранявших российских императоров. Еще один такой музей есть только в Париже.</t>
   </si>
   <si>
-    <t>необычн</t>
-  </si>
-  <si>
     <t>horse</t>
   </si>
   <si>
@@ -1023,9 +816,6 @@
   </si>
   <si>
     <t>САмый красивый представитель -я, конь Тидон. Остальных моих братьев можно увидеть например на Территории Дончаков Гелиос; Донской природный заповедник: В этом природном заповеднике можно встретить диких донских лошадей, которые живут в своей естественной среде.</t>
-  </si>
-  <si>
-    <t>донск лошад</t>
   </si>
   <si>
     <t>deer</t>
@@ -1038,9 +828,6 @@
 В оленьем питомнике в Усть-донецком районе</t>
   </si>
   <si>
-    <t>ол</t>
-  </si>
-  <si>
     <t>turist</t>
   </si>
   <si>
@@ -1049,9 +836,6 @@
   </si>
   <si>
     <t>Ростовскую область за 2022 год посетило почти 4 миллиона туристов</t>
-  </si>
-  <si>
-    <t>турпоток турист</t>
   </si>
   <si>
     <t xml:space="preserve">tur </t>
@@ -1065,9 +849,6 @@
     <t>Купить тур в Ростовскую область можно на официальном сайте visitdon.ru в разделе "Купить тур"</t>
   </si>
   <si>
-    <t>куп тур</t>
-  </si>
-  <si>
     <t>virtual excursions</t>
   </si>
   <si>
@@ -1075,9 +856,6 @@
   </si>
   <si>
     <t>Совершить виртуальную экскурсию можно на официальном сайте visitdon.ru в разделе "Виртуальные туры по региону"</t>
-  </si>
-  <si>
-    <t>виртуальн экскурс</t>
   </si>
   <si>
     <t>What_to_bring</t>
@@ -1091,9 +869,6 @@
     <t>Из Ростова непременно стоит привезти сувениры с казачьей тематикой: статуэтки, посуду со сценками из станичной жизни, донскую рыбу, сыры, мясные деликатесы и конечно же бутылочку донского вина, сделанного по старинным казачьим рецептам</t>
   </si>
   <si>
-    <t>привезт сувенир</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -1101,9 +876,6 @@
   </si>
   <si>
     <t>По дороге на юг на территории Ростовской области можно остановиться на отдых в многочисленных гостиницах и мотелях, расположенных вблизи автодороги М-4 "Дон" или в одном из комплексов Транспарк.</t>
-  </si>
-  <si>
-    <t>пут ост</t>
   </si>
   <si>
     <t>excursion</t>
@@ -1114,9 +886,6 @@
   </si>
   <si>
     <t>Посмотреть Ростов-Арену можно не только во время матчей. На стадионе проводятся экскурсии по предварительной записи. Можно оставить заявку на сайте rnd-arena.ru</t>
-  </si>
-  <si>
-    <t>стадион ар</t>
   </si>
   <si>
     <t>fest</t>
@@ -1132,9 +901,6 @@
 </t>
   </si>
   <si>
-    <t>фест праздник</t>
-  </si>
-  <si>
     <t>unusual</t>
   </si>
   <si>
@@ -1142,9 +908,6 @@
   </si>
   <si>
     <t>Можно посмотреть на донских мустангов - это одно из чудес Ростовской области. Отправляйтесь в Государственный Биосферный заповедник «Ростовский» на остров Водный. Рекомендую выбирать начало апреля - совместить поездку с цветением тюльпанов и фестивалем «Воспетая степь»</t>
-  </si>
-  <si>
-    <t>особ необычн</t>
   </si>
   <si>
     <t>mustang</t>
@@ -1170,9 +933,6 @@
     <t>Отправляйтесь в Государственный Биосферный заповедник «Ростовский» на остров Водный. Рекомендую выбирать начало апреля - совмещать поездку с цветением тюльпанов и фестивалем «Воспетая степь»; Различные конюшни и фермы в Азовском районе Ростовской области могут предоставить вам возможность увидеть донских мустангов;В Ростовской области есть множество конных клубов и ферм, которые содержат донских мустангов для конных прогулок и экскурсий;На местных фестивалях и мероприятиях, посвященных культуре и истории Ростовской области, иногда можно увидеть выступления с донскими мустангами; Некоторые природные заповедники и заказники в регионе также могут иметь диких донских мустангов. Однако, для их наблюдения в дикой природе, возможно, потребуется организовать специальные экскурсии</t>
   </si>
   <si>
-    <t>мустанг лошад мустанг</t>
-  </si>
-  <si>
     <t>vine_1</t>
   </si>
   <si>
@@ -1192,9 +952,6 @@
   </si>
   <si>
     <t>Да, Ростовская область знаменита своими виноделами. В Ростовской области несколько автохтонных сортов винограда, но самые популярные сорта: краснотоп золотовский – красный сорт для любителей вина с характером и сибирьковый – белый сорт, с яркой ароматикой и фруктовыми нотками; Да, в Ростовской области производят вино. Ростовская область известна своими винодельческими предприятиями, которые производят различные сорта вин, включая красное, белое и игристое вино. В регионе есть виноградники и винодельни, которые специализируются на производстве вина. Благоприятный климат и почвы Ростовской области способствуют выращиванию винограда и производству высококачественного вина.</t>
-  </si>
-  <si>
-    <t>вин вин винодел плантац винодельческ алкогольн напитк</t>
   </si>
   <si>
     <t>vine</t>
@@ -1220,9 +977,6 @@
     <t>В Ростовской области несколько автохтонных сортов винограда, но самые популярные сорта: краснотоп золотовский – красный сорт для любителей вина с характером и сибирьковый – белый сорт, с яркой ароматикой и фруктовыми нотками.</t>
   </si>
   <si>
-    <t>виноград сорт ингредиент</t>
-  </si>
-  <si>
     <t>sea</t>
   </si>
   <si>
@@ -1242,9 +996,6 @@
     <t>Конечно, в Ростовской области есть Азовское море и выход к нему имеет чудесный город Таганрог, который уже несколько сезонов в Таганрогском заливе принимает круизные теплоходы. Море довольно мелкое и теплое, поэтому здесь есть отличные места для отдыха с детьми, а недалеко от города в Неклиновском районе есть детские лагеря, которые каждый сезон ждут ребят разного возраста на каникулы.</t>
   </si>
   <si>
-    <t>мор вод куп куп пляж морск водн прибережн</t>
-  </si>
-  <si>
     <t>glamlang</t>
   </si>
   <si>
@@ -1256,9 +1007,6 @@
   </si>
   <si>
     <t xml:space="preserve">Отдых на природе сейчас очень популярен, вы можете выбрать глэмпинги Неклиновского района (глэпминги «Просто лес» или «River Glamp») – отдых в лесу или на берегу реки, или отправиться в Усть-Донецкий и Константиновский район (глэмпинг «Три воды» и «Синий Яр») – здесь вас ждет настоящая природа донской степи. </t>
-  </si>
-  <si>
-    <t>глэмпинг природ лагер</t>
   </si>
   <si>
     <t>eat</t>
@@ -1285,9 +1033,6 @@
     <t>Обязательно стоит попробовать культовое блюдо – «Донскую уху», ее готовят во многих заведениях Ростова-на-Дону и области, а еще ей посвящен целый гастрономический праздник.
 Конечно, отдельного внимания заслуживают донские раки и не забудьте взять у местных мастер-класс по их употреблению – это целое искусство и медитация.
 Для любителей выпечки – курник – король праздничных застолий. Здесь его готовят по старинным казачьим рецептам.</t>
-  </si>
-  <si>
-    <t>попроб кухн кухн блюд кулинарн рецепт гастрон притоговл</t>
   </si>
   <si>
     <t>park</t>
@@ -1317,18 +1062,12 @@
 Для любителей водных развлечений – парк семейного отдыха «Станция Морская» - расположен на берегу Таганрогского залива, на территории уникальные панорамные бассейны, бани и сауны, гостиница и летний кемпинг. Южный парк птиц «Малинки» - отличное место, чтобы провести отдых всей семьей, мастер-классы, показательные кормления животных и птиц, эко-лекции и экскурсии с орнитологами.</t>
   </si>
   <si>
-    <t>парк воздух</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
     <t xml:space="preserve">Куда поехать с детьми в Ростовской области?
 Где отдохнуть с детьми?
 </t>
-  </si>
-  <si>
-    <t>детьм</t>
   </si>
   <si>
     <t xml:space="preserve">go </t>
@@ -1344,9 +1083,6 @@
 - на теплоходе – для тех, кто предпочитает отдых на воде</t>
   </si>
   <si>
-    <t>добр доех</t>
-  </si>
-  <si>
     <t>levberdon</t>
   </si>
   <si>
@@ -1354,9 +1090,6 @@
   </si>
   <si>
     <t>это сокращенно «Левый берег Дона», на котором расположены базы отдыха, песчаные пляжи, кафе, рестораны, ночные клубы, а также парк Левобережный и стадион «Ростов-Арена»</t>
-  </si>
-  <si>
-    <t>левбердон</t>
   </si>
   <si>
     <t>fishing</t>
@@ -1371,9 +1104,6 @@
 Самые популярные места помимо реки Дон: река Маныч, Цимлянское водохранилище,  Северский Донец.</t>
   </si>
   <si>
-    <t>рубалк порыбач</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
@@ -1383,9 +1113,6 @@
     <t>Предлагаем перед матчем прогуляться по Ростову-на-Дону. Идеально подойдет центр города – можно пройтись по центральной улице – Большой Садовой или свернуть в сторону Набережной и прогуляться по пешеходным украшенным переулкам Семашко, Газетный и Соборный. Тут же можно неспешно насладиться колоритом города за чашечкой ароматного кофе в уютном кафе и ресторанах.</t>
   </si>
   <si>
-    <t>матч</t>
-  </si>
-  <si>
     <t>vip</t>
   </si>
   <si>
@@ -1395,9 +1122,6 @@
     <t>На территории Ростовской области каждому гостю рады. ВИП гостям можно рассмотреть городские варианты - Рэдиссон Блу Отель, Ростов-на-Дону 5 звезд, расположенный на Набережной Ростова-на-Дону. Или Бутик-Отель 39 5 звезд, расположенный в центре Ростова. Или Отель Резиденция 5 звезд - лучший пятизвездочный отель по версии RHA, расположенный в историческом центре Ростова-на-Дону. Для любителей природы и удаленности от шумного мегаполиса можно рассмотреть отель Old House Resort &amp; SPA 5 звезд в 15 километрах от Ростова, в х. Усть-Койсуге или загородный SPA отель 5 звезд «Уткино» Country House, расположенный в Семикаракорском районе.</t>
   </si>
   <si>
-    <t>вип отел забронир</t>
-  </si>
-  <si>
     <t>tour_routes</t>
   </si>
   <si>
@@ -1407,9 +1131,6 @@
     <t>Любители истории и культуры в Ростовской области могут посетить турмаршруты. Гости могут выбрать из предложенных вариантов то, что им по душе. «Большой казачий круг» -это приключение выходного дня полного погружения в прошлое, обряды, песни и еду донских казаков. «Стартап Петра I» - путешествие по берегу Азовского моря, в котором вас ждут истории о сотворении городов и восхитительные пейзажи. «Долина Дона» - маршрут проходит через колыбель российского виноделия, где расположены винодельни одноименного защищенного географического указания. «По дороге на Юг» - для тех, кто любит приключения и интересные остановки в пути. «Золотое кольцо Боспорского Царства» - уникальный туристский проект реализуется Русским географическим обществом совместно с Ростовской областью, Краснодарским краем, Республикой Крым и городом Севастополем.</t>
   </si>
   <si>
-    <t>турмаршрут</t>
-  </si>
-  <si>
     <t>where_to_go</t>
   </si>
   <si>
@@ -1419,9 +1140,6 @@
     <t>В Ростовской области стоит посетить такие города как Азов, Таганрог, Новочеркасск, Семикаракорск, станицы Старочеркасская и Мелиховская, хуторы Пухляковский и Раздорский. Каждое место уникально по-своему, богато на исторические, культурные, архитектурные и гастрономические достопримечательности. Здесь можно почувствовать истинную душу региона.</t>
   </si>
   <si>
-    <t>кром</t>
-  </si>
-  <si>
     <t>nature</t>
   </si>
   <si>
@@ -1431,9 +1149,6 @@
     <t>Ростовская область известна донской природой, донской степью. Здесь можно погрузиться в особую атмосферу. Рекомендую посетить Государственный природный биосферный заповедник «Ростовский» в юго-восточной части Ростовской области.  На его территории в  центре озера Маныч-Гудило расположен остров Водный, где обитает уникальный табун диких лошадей – мустангов. Или Государственный природный заказник «Горненский», он был создан для сохранения и восстановления редких и исчезающих видов животных, растений, грибов, занесенных в Красную книгу Ростовской области. «Горненский» расположен в Красносулинском районе рядом с трассой М4-«Дон». Если хотите совместить природу и город, можно посетить Ботанический сад Южного федерального университета. Уникальный памятник природы в черте огромного мегаполиса, здесь можно увидеть коллекцию флоры из разных уголков планеты.</t>
   </si>
   <si>
-    <t>отдохнут шум</t>
-  </si>
-  <si>
     <t>transit</t>
   </si>
   <si>
@@ -1443,9 +1158,6 @@
     <t>Ростовская область  является  единственным автомобильным хабом для путешественников на Юг России. Среди выгодных вариантов Отель-музей «СССР», расположенный на 932-м километре трассы М-4 «Дон». Если хочется остановиться на отдых во время транзита и познакомиться с достопримечательностями, тогда можно остановиться в Ростове-на-Дону. Здесь есть отели  любого уровня, на любой вкус и в любом районе города.</t>
   </si>
   <si>
-    <t>транз</t>
-  </si>
-  <si>
     <t>beach</t>
   </si>
   <si>
@@ -1453,9 +1165,6 @@
   </si>
   <si>
     <t>На побережье Азовского моря, в Таганрогском заливе расположена Павло-Очаковская коса.  Пляж песчано-ракушечный, пологий заход в воду, что идеально подходит для отдыха с детьми. Здесь есть базы отдыха, гостевые дома, кафе и пляжная инфраструктура. Это также уникальное место для занятия виндсёрфингом и кайтсёрфингом. Также можно выбрать песчаный пляж «Казачий Дон» в станице Старочеркасской. Пляж входит в состав комплекса, имеется инфраструктура. Если не хочется выезжать далеко из Ростова, можно выбрать отдых на Соленом озере в двадцати минутах езды от города. Пляж имеет всю необходимую инфраструктуру.</t>
-  </si>
-  <si>
-    <t>пляжн пляж</t>
   </si>
   <si>
     <t>what_to_do</t>
@@ -1471,9 +1180,6 @@
   </si>
   <si>
     <t>Любой гость в  Ростовской области сможет найти для себя что-то интересное. В Ростове-на-Дону можно прогуляться по Большой Садовой, по Набережной и прогуляться по пешеходным улицам Семашко, Газетный и Соборный. Тут можно неспешно насладиться колоритом города за чашечкой ароматного кофе в уютных кафе и ресторанах. Если времени чуть больше, то обязательно нужно посетить станицу Старочеркасскую и этоно-хутор Старозолотовский. Обе локации вошли в состав Ассоциации самых красивых деревень и городков России.</t>
-  </si>
-  <si>
-    <t>работ командировк</t>
   </si>
   <si>
     <t>swim</t>
@@ -1504,9 +1210,6 @@
     <t xml:space="preserve">На левом берегу реки расположен Центральный городской пляж. Есть на так называемом Левбердоне и рестораны, и базы отдыха на любой вкус. Пляжный отдых есть в городах Азов, Волгодонск, Константиновском районе, Станице Старочеркасской: здесь расположены базы отдыха. Если хочется совместить пляжную программу с культурной, тогда лучше ехать в станицу Старочеркасскую на песчаный пляж «Казачий Дон», место подходит для отдыха с детьми.  Помимо реки Дон на территории области можно отдохнуть на Павло-Очаковской косе и озерах.   </t>
   </si>
   <si>
-    <t>плав рекриац</t>
-  </si>
-  <si>
     <t>prisedent</t>
   </si>
   <si>
@@ -1519,9 +1222,6 @@
 Кони вне политики. Давай лучше расскажу тебе про Ростовскую область</t>
   </si>
   <si>
-    <t>политик взгляд</t>
-  </si>
-  <si>
     <t>putin</t>
   </si>
   <si>
@@ -1529,9 +1229,6 @@
   </si>
   <si>
     <t>Владимир Владимирович Путин</t>
-  </si>
-  <si>
-    <t>президент</t>
   </si>
   <si>
     <t>krumsk</t>
@@ -1546,9 +1243,6 @@
 Крым замечательный, обязательно туда съездите</t>
   </si>
   <si>
-    <t>крым</t>
-  </si>
-  <si>
     <t>policy</t>
   </si>
   <si>
@@ -1557,9 +1251,6 @@
 Когда закончится война? Когда закончится СВО? Когда закончится специальная военная операция? </t>
   </si>
   <si>
-    <t>байд америк санкц войн изр конфликт украин во</t>
-  </si>
-  <si>
     <t>escape</t>
   </si>
   <si>
@@ -1570,9 +1261,6 @@
 </t>
   </si>
   <si>
-    <t>выход</t>
-  </si>
-  <si>
     <t>library</t>
   </si>
   <si>
@@ -1582,9 +1270,6 @@
   <si>
     <t xml:space="preserve">Зачем тебе в библиотеку, если можно пройтись по стенду Ростовской области;
 </t>
-  </si>
-  <si>
-    <t>библиотек</t>
   </si>
   <si>
     <t>exhibition</t>
@@ -1599,9 +1284,6 @@
     <t>Очень красиво, мне например, больше всех нравится стенд Ростовской области</t>
   </si>
   <si>
-    <t>выставк стенд вднх</t>
-  </si>
-  <si>
     <t>Barbie</t>
   </si>
   <si>
@@ -1611,9 +1293,6 @@
   </si>
   <si>
     <t xml:space="preserve">Этот фильм не видел, зато видел много красивых мест в Ростовской области; Видел, но достопримечательности Ростовской области мне понравились больше </t>
-  </si>
-  <si>
-    <t>барб фильм</t>
   </si>
   <si>
     <t>В какие дни не работаем в следующем году?
@@ -1625,9 +1304,6 @@
     <t>"Даты из производственного календаря"; В эти дни вы можете посетить Ростовскую область и увидеть наши красоты!</t>
   </si>
   <si>
-    <t>дни год выходн</t>
-  </si>
-  <si>
     <t>newes</t>
   </si>
   <si>
@@ -1640,9 +1316,6 @@
     <t>Новостей у нас много! Вот у нас в Ростовской области и к Чехову в домик заглянуть можно, и Азовскую крепость покорить, и донскую уху попробовать</t>
   </si>
   <si>
-    <t>новост извест</t>
-  </si>
-  <si>
     <t>wheather</t>
   </si>
   <si>
@@ -1665,9 +1338,6 @@
     <t>Очень красиво, есть где разгуляться!</t>
   </si>
   <si>
-    <t>москв</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -1678,9 +1348,6 @@
     <t xml:space="preserve">Как обычно в Москве, час-пик; Самое время посетить наш стенд; </t>
   </si>
   <si>
-    <t>котор час врем врем</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1713,6 +1380,12 @@
   </si>
   <si>
     <t xml:space="preserve">немогу, так как не умею петь, но могу расказать про ростовскую область </t>
+  </si>
+  <si>
+    <t>тебе сколько лет? Конь сколько тебя лет</t>
+  </si>
+  <si>
+    <t>0. так как я недавно родился</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1905,9 +1578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,11 +1796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomRight" activeCell="A344" sqref="A344:C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,2844 +1822,4132 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="2:4" s="2" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="2:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="2:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="2:4" s="5" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="2:4" s="2" customFormat="1" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="2:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="2:4" s="2" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="2:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="2:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="2:4" s="2" customFormat="1" ht="259.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="2:4" s="2" customFormat="1" ht="187.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="2:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="2:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="2:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="2:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="2:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="2:4" s="2" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="2:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="2:4" s="2" customFormat="1" ht="316.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="2:4" s="2" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="2:4" s="2" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="2:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="2:4" s="2" customFormat="1" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="2:4" s="2" customFormat="1" ht="302.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="2:4" s="2" customFormat="1" ht="244.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="2:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="2:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="2:4" s="2" customFormat="1" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="2:4" s="2" customFormat="1" ht="259.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="2:4" s="2" customFormat="1" ht="345.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="2:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="2:4" s="2" customFormat="1" ht="360" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="2:4" s="2" customFormat="1" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="2:4" s="2" customFormat="1" ht="244.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="2:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="2:4" s="2" customFormat="1" ht="302.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="2:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="2:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="2:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="2:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="2:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="2:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="17"/>
+    </row>
+    <row r="113" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B123" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B128" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B135" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B139" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B140" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B141" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B142" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B143" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B145" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B147" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B148" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B149" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B150" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B151" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B152" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B153" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B155" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B156" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B157" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B158" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B159" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B160" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B163" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B164" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B165" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B166" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B167" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B169" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B171" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B173" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B174" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B175" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B176" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B177" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B179" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B180" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B181" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B182" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B183" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B184" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B186" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B187" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B188" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B190" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B191" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B192" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B193" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B194" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B195" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B196" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B197" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B198" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B199" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B200" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B201" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B202" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B203" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B204" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B205" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B206" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B207" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B208" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B209" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B210" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B211" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B212" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B213" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B214" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B215" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B216" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B217" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B219" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B220" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B221" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B222" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B223" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B224" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B225" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B226" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B227" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B228" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B229" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B230" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B231" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B232" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B233" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B234" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B235" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B236" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B237" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B238" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B239" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B240" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B241" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B242" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B243" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B244" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B245" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B246" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B247" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B248" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B249" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B250" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B251" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B252" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B253" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B254" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B255" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B256" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B257" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B258" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B259" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B260" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B261" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B262" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B263" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B264" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B265" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B266" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B267" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B268" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B269" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B270" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B271" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B272" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B273" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B274" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B275" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B276" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B277" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B278" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B279" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B280" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B281" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B282" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B283" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B284" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B285" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B286" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B287" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B288" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B289" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B290" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B291" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B292" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B293" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B294" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B295" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B296" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B297" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B298" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B299" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B300" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B301" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B302" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B303" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B304" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B305" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B306" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B307" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B308" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B309" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B310" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B311" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B312" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B313" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B314" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B315" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B316" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B317" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B318" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B319" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B320" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B321" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B322" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B323" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B324" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B325" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B326" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B327" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B328" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B329" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B330" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B331" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B332" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B333" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B334" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B335" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B336" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B337" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B338" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B339" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B340" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B341" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B342" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B343" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A344" s="10"/>
+      <c r="B344" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A345" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B345" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A346" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="B346" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C346" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="347" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A347" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B347" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C347" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="348" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A348" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B348" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="349" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A349" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B349" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C349" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="350" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A350" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="B350" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C350" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="351" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A351" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B351" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C351" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="352" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A352" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B352" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C352" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+    </row>
+    <row r="353" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A353" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B353" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C353" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="354" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A354" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="B354" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="C354" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="355" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A355" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B355" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C355" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="356" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A356" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B356" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C356" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
+    </row>
+    <row r="357" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A357" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B357" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C357" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="358" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A358" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="B358" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="C358" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="359" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A359" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B359" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C359" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="360" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A360" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B360" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C360" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="361" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A361" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B361" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C361" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="362" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A362" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="B362" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C362" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="363" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A363" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B363" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="C363" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="364" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A364" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B364" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="17" t="s">
+    </row>
+    <row r="365" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A365" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B365" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C365" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="366" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A366" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="B366" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="C366" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="367" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A367" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B367" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="C367" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="368" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A368" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B368" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="17" t="s">
+    </row>
+    <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A369" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B369" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C369" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="370" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A370" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="B370" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="C370" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="371" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B371" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="C371" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A372" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B372" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C372" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="17" t="s">
+    </row>
+    <row r="373" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B373" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="C373" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="9" t="s">
+    </row>
+    <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A374" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B374" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="C374" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="375" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A375" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B375" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C375" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="17" t="s">
+    </row>
+    <row r="376" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A376" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="B376" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C376" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="377" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A377" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="B377" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="C377" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="378" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A378" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B378" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="C378" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="379" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A379" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B379" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C379" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="17" t="s">
+    </row>
+    <row r="380" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B380" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C380" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="381" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A381" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="B381" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="C381" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="9" t="s">
+    </row>
+    <row r="382" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B382" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="C382" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9" t="s">
+    <row r="383" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B383" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="C383" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="384" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B384" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="17" t="s">
+    </row>
+    <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A385" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="B385" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C385" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A386" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="B386" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="C386" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="9" t="s">
+    </row>
+    <row r="387" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A387" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B387" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="C387" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="388" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A388" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B388" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="17" t="s">
+    </row>
+    <row r="389" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A389" s="14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="B389" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C389" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="390" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A390" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="B390" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="C390" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="391" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A391" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B391" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="C391" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="392" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A392" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B392" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C392" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="17" t="s">
+    </row>
+    <row r="393" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A393" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="B393" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C393" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="B394" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="C394" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="395" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A395" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B395" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="C395" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="396" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B396" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C396" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="17" t="s">
+    </row>
+    <row r="397" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A397" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="B397" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C397" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="398" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A398" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="B398" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="C398" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="9" t="s">
+    </row>
+    <row r="399" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A399" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B399" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C399" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="17" t="s">
+    </row>
+    <row r="400" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A400" s="14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="B400" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C400" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="401" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A401" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B401" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="C401" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="402" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A402" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B402" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C402" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="17" t="s">
+    </row>
+    <row r="403" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A403" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="B403" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C403" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="404" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A404" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="B404" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="C404" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="9" t="s">
+    </row>
+    <row r="405" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A405" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="B405" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="C405" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="406" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A406" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B406" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C406" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="17" t="s">
+    </row>
+    <row r="407" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A407" s="14" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C407" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="408" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A408" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="B408" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="C408" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="9" t="s">
+    </row>
+    <row r="409" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A409" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B409" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="C409" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+    <row r="410" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A410" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B410" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C410" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="17" t="s">
+    </row>
+    <row r="411" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A411" s="14" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="B411" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C411" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="412" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A412" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="B412" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="C412" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="413" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A413" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="B413" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="C413" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+    <row r="414" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A414" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B414" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C414" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="17" t="s">
+    </row>
+    <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A415" s="14" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" ht="259.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="B415" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C415" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="3" t="s">
+    </row>
+    <row r="416" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A416" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="B416" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="C416" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="9" t="s">
+    </row>
+    <row r="417" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A417" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="B417" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="C417" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    <row r="418" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A418" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="B418" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="C418" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+    <row r="419" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A419" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B419" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C419" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="17" t="s">
+    </row>
+    <row r="420" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A420" s="14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="B420" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C420" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="17" t="s">
+    </row>
+    <row r="421" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A421" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C421" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="3" t="s">
+    </row>
+    <row r="422" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A422" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="B422" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="C422" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="423" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A423" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B423" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="C423" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+    <row r="424" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A424" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B424" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C424" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="17" t="s">
+    </row>
+    <row r="425" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A425" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="187.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="B425" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C425" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="3" t="s">
+    </row>
+    <row r="426" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A426" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="B426" s="9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="C426" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="9" t="s">
+    </row>
+    <row r="427" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A427" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="B427" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="C427" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+    <row r="428" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A428" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B428" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="17" t="s">
+    </row>
+    <row r="429" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A429" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="B429" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C429" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C65" s="3" t="s">
+    </row>
+    <row r="430" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A430" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="B430" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="C430" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A431" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B431" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="17" t="s">
+    </row>
+    <row r="432" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A432" s="13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="B432" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C432" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="3" t="s">
+    </row>
+    <row r="433" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A433" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="B433" s="9" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="C433" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="9" t="s">
+    </row>
+    <row r="434" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A434" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="B434" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="C434" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+    <row r="435" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A435" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B435" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C435" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="17" t="s">
+    </row>
+    <row r="436" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A436" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C436" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="3" t="s">
+    </row>
+    <row r="437" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A437" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="B437" s="9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="C437" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B71" s="9" t="s">
+    </row>
+    <row r="438" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A438" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="B438" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="C438" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    <row r="439" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A439" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B439" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D72" s="17" t="s">
+    </row>
+    <row r="440" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A440" s="13" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="B440" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C440" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="441" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A441" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="B441" s="9" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="C441" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B74" s="9" t="s">
+    </row>
+    <row r="442" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A442" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B442" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="C442" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="443" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A443" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B443" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C443" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D75" s="17" t="s">
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="13" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="B444" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C444" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="445" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A445" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="B445" s="9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="C445" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B77" s="9" t="s">
+    </row>
+    <row r="446" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A446" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="B446" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="C446" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A447" s="13" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="B447" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C447" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="448" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A448" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="B448" s="9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="C448" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B79" s="9" t="s">
+    </row>
+    <row r="449" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A449" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="B449" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="C449" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="316.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+    <row r="450" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A450" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B450" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C450" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D80" s="17" t="s">
+    </row>
+    <row r="451" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A451" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B451" s="9" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="C451" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="9" t="s">
+    </row>
+    <row r="452" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A452" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="B452" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="C452" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+    <row r="453" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A453" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B453" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C453" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D82" s="17" t="s">
+    </row>
+    <row r="454" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A454" s="13" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="B454" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="C454" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="B455" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="C455" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B456" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="C456" s="19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B457" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C457" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B458" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="C458" s="21" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" ht="302.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+    <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B459" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="C459" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C86" s="3" t="s">
+    </row>
+    <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B460" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="C460" s="20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" ht="244.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B461" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="C461" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" ht="259.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" ht="345.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="244.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="302.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D110" s="17"/>
-    </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="10"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="10"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="10"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="10"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="10"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="10"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="10"/>
-      <c r="E125" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="10"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="10"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="10"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="10"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="10"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="10"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="10"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="10"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="10"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="10"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="10"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="10"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="10"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="10"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="10"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="10"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="10"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="10"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="10"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="10"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="10"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="10"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="10"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="10"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="10"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="10"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="10"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="10"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="10"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="10"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="10"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="10"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="10"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="10"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="10"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="10"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="10"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="10"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="10"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="10"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="10"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="10"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="10"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="10"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="10"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="10"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="10"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="10"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="10"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="10"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="10"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="10"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="10"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="10"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="10"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="10"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="10"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="10"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="10"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="10"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="10"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="10"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="10"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="10"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="10"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="10"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="10"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="10"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="10"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="10"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="10"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="10"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="10"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="10"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="10"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="10"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="10"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="10"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="10"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="10"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="10"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="10"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="10"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="10"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="10"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="10"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="10"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="10"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="10"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="10"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="10"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="10"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="10"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="10"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="10"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="10"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="10"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="10"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="10"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="10"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="10"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="10"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="10"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="10"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="10"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="10"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="10"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="10"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="10"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="10"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="10"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="10"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="10"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="10"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="10"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="10"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="10"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="10"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="10"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="10"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="10"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="10"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="10"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="10"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="10"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="10"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="10"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="10"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="10"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="10"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="10"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="10"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="10"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="10"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="10"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="10"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="10"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="10"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="10"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="10"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="10"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="10"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="10"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="10"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="10"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="10"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="10"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="10"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="10"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="10"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="10"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="10"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="10"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="10"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="10"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="10"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="10"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="10"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="10"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="10"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="10"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="10"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="10"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="10"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="10"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="10"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="10"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="10"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="10"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="10"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="10"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="10"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="10"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="10"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="10"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="10"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="10"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="10"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="10"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="10"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="10"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="10"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="10"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="10"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="10"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="10"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="10"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="10"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="10"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="10"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="10"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="10"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="10"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="10"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="10"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="10"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="10"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="10"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="10"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="10"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="10"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="10"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="10"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="10"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="10"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="10"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="10"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="10"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="10"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="10"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="10"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="10"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="10"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="10"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="10"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="10"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="10"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="10"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="10"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="10"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="10"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="10"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="10"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="10"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="10"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="10"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="10"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="10"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="10"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="10"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="10"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="10"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="10"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="10"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="10"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="10"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="10"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="10"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="10"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="10"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="10"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="10"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="10"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="10"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="10"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="10"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="10"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="10"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="10"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="10"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="10"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="10"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="10"/>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="10"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="10"/>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="10"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="10"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="10"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="10"/>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="10"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="10"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="10"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="10"/>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="10"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="10"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="10"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="10"/>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="10"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="10"/>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="10"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="10"/>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="10"/>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="10"/>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="10"/>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="10"/>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="10"/>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="10"/>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="10"/>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="10"/>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="10"/>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="10"/>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="10"/>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="10"/>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="10"/>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="10"/>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="10"/>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="10"/>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="10"/>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="10"/>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="10"/>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="10"/>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="10"/>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="10"/>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="10"/>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="10"/>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="10"/>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="10"/>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="10"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="10"/>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="10"/>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="10"/>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="10"/>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="10"/>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="10"/>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="10"/>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="10"/>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="10"/>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="10"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="10"/>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="10"/>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="10"/>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="10"/>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="10"/>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="10"/>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="10"/>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="10"/>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="10"/>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="10"/>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" s="10"/>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="10"/>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="10"/>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="10"/>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="10"/>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="10"/>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="10"/>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="10"/>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="10"/>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="10"/>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="10"/>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="10"/>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="10"/>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="10"/>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="10"/>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="10"/>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="10"/>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="10"/>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="10"/>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="10"/>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="10"/>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="10"/>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="10"/>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="10"/>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="10"/>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="10"/>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="10"/>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="10"/>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" s="10"/>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="10"/>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="10"/>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="10"/>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="10"/>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="10"/>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="10"/>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="10"/>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="10"/>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="10"/>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="10"/>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="10"/>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="10"/>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="10"/>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="10"/>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="10"/>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="10"/>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="10"/>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="10"/>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="10"/>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="10"/>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="10"/>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="10"/>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="10"/>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="10"/>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="10"/>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="10"/>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B501" s="10"/>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B502" s="10"/>
-    </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B503" s="10"/>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B504" s="10"/>
-    </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B505" s="10"/>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B506" s="10"/>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" s="10"/>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B508" s="10"/>
-    </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" s="10"/>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" s="10"/>
-    </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" s="10"/>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" s="10"/>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="10"/>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="10"/>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="10"/>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" s="10"/>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" s="10"/>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="10"/>
-    </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="10"/>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="10"/>
-    </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="10"/>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="10"/>
-    </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" s="10"/>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" s="10"/>
-    </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" s="10"/>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" s="10"/>
-    </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="10"/>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="10"/>
-    </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" s="10"/>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" s="10"/>
-    </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" s="10"/>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" s="10"/>
@@ -6469,7 +7427,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C420" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
